--- a/biology/Botanique/Pterocarpus_tinctorius/Pterocarpus_tinctorius.xlsx
+++ b/biology/Botanique/Pterocarpus_tinctorius/Pterocarpus_tinctorius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pterocarpus tinctorius, appelé bois rouge, est une espèce de la famille des Fabaceae décrite par Friedrich Welwitsch[1],[2]. Cette espèce, délicate et à croissance lente, pousse dans les forêts de miombo en Afrique, un écosystème unique de broussailles et de savane au sud du Bassin du Congo[3], où elle est localement appelé mukula[3],[4].
-Son bois est exploité en Angola, au Burundi, en république démocratique du Congo, au Malawi, au Mozambique et en Tanzanie, que les négociants en bois appelaient « bois de rose », pour l'industrie de l'ameublement chinoise. Selon Greenpeace, la demande très élevée favorise l'exploitation illégale de cette essence de bois dans le sud de la république démocratique du Congo et en Zambie, favorisé par une corruption massive[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pterocarpus tinctorius, appelé bois rouge, est une espèce de la famille des Fabaceae décrite par Friedrich Welwitsch,. Cette espèce, délicate et à croissance lente, pousse dans les forêts de miombo en Afrique, un écosystème unique de broussailles et de savane au sud du Bassin du Congo, où elle est localement appelé mukula,.
+Son bois est exploité en Angola, au Burundi, en république démocratique du Congo, au Malawi, au Mozambique et en Tanzanie, que les négociants en bois appelaient « bois de rose », pour l'industrie de l'ameublement chinoise. Selon Greenpeace, la demande très élevée favorise l'exploitation illégale de cette essence de bois dans le sud de la république démocratique du Congo et en Zambie, favorisé par une corruption massive.
 </t>
         </is>
       </c>
